--- a/data/trans_orig/P36BPD14_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>11692</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6326</v>
+        <v>6358</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20241</v>
+        <v>19484</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03666848972538338</v>
+        <v>0.03666848972538339</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01984032129458009</v>
+        <v>0.01994057866352055</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06348330569578284</v>
+        <v>0.06110667140840968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -762,19 +762,19 @@
         <v>7443</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4257</v>
+        <v>4275</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12395</v>
+        <v>12481</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02354989111216575</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01347010089245285</v>
+        <v>0.01352546276654449</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03921624365082849</v>
+        <v>0.03948984220521465</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -783,19 +783,19 @@
         <v>19135</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12086</v>
+        <v>12652</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27619</v>
+        <v>27963</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03013795889327181</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01903572835442595</v>
+        <v>0.01992669352336299</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04350061728252697</v>
+        <v>0.04404325055996011</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>31884</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22375</v>
+        <v>22731</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42063</v>
+        <v>43243</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09999780809666307</v>
+        <v>0.0999978080966631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0701744986339574</v>
+        <v>0.0712919331088883</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1319218076931812</v>
+        <v>0.1356229066947592</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -833,19 +833,19 @@
         <v>37279</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28766</v>
+        <v>28969</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48779</v>
+        <v>48527</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1179501561785225</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09101392036943981</v>
+        <v>0.09165628995082423</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1543329186241469</v>
+        <v>0.1535367876339582</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>97</v>
@@ -854,19 +854,19 @@
         <v>69163</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54704</v>
+        <v>55939</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>85242</v>
+        <v>85035</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.108934613476108</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08616008756012743</v>
+        <v>0.08810672826401578</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1342590016931546</v>
+        <v>0.1339329912241467</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>275270</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>263130</v>
+        <v>261568</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>286311</v>
+        <v>286302</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8633337021779536</v>
+        <v>0.8633337021779537</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8252592936604087</v>
+        <v>0.8203595694745208</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8979633706359795</v>
+        <v>0.8979358950188395</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>464</v>
@@ -904,19 +904,19 @@
         <v>271338</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>258663</v>
+        <v>259041</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>280338</v>
+        <v>280110</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8584999527093117</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8183950510173205</v>
+        <v>0.8195924251910759</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8869751935047659</v>
+        <v>0.886253859963344</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>746</v>
@@ -925,19 +925,19 @@
         <v>546608</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>530232</v>
+        <v>529452</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>562833</v>
+        <v>561872</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8609274276306202</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8351352286883043</v>
+        <v>0.8339054990378468</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8864829781489649</v>
+        <v>0.8849687664996834</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>59194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43011</v>
+        <v>43992</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>81155</v>
+        <v>80517</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.111745652969065</v>
+        <v>0.1117456529690649</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08119459284714148</v>
+        <v>0.08304709117530583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1532026049241608</v>
+        <v>0.1519975906166561</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>113</v>
@@ -1050,19 +1050,19 @@
         <v>82167</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>68765</v>
+        <v>68660</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>98556</v>
+        <v>97317</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1503532992420629</v>
+        <v>0.150353299242063</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1258285564028802</v>
+        <v>0.1256364229075821</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1803421457546496</v>
+        <v>0.1780749148545765</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>155</v>
@@ -1071,19 +1071,19 @@
         <v>141362</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>120280</v>
+        <v>118537</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>165314</v>
+        <v>164988</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1313502641261369</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1117617623032834</v>
+        <v>0.110142134998104</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1536065270947067</v>
+        <v>0.1533037771278968</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>244525</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>215974</v>
+        <v>216206</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>272638</v>
+        <v>274828</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4616076083862228</v>
+        <v>0.4616076083862227</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4077088831247609</v>
+        <v>0.4081478228167977</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.514678036751183</v>
+        <v>0.5188127888344098</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>291</v>
@@ -1121,19 +1121,19 @@
         <v>221572</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>202154</v>
+        <v>201781</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>244830</v>
+        <v>243396</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4054429364540315</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3699112029429348</v>
+        <v>0.3692287485285758</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4480006735296663</v>
+        <v>0.4453771622792655</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>466</v>
@@ -1142,19 +1142,19 @@
         <v>466097</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>431024</v>
+        <v>431947</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>504106</v>
+        <v>503238</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4330876995005776</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4004987075892966</v>
+        <v>0.4013563839387463</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4684050548110477</v>
+        <v>0.4675984076554179</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>226005</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>199699</v>
+        <v>196886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>257023</v>
+        <v>251409</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4266467386447124</v>
+        <v>0.4266467386447122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3769869554151373</v>
+        <v>0.3716760877650536</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4852009452182853</v>
+        <v>0.4746024546283197</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>313</v>
@@ -1192,19 +1192,19 @@
         <v>242755</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>220623</v>
+        <v>222490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>263931</v>
+        <v>264559</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4442037643039055</v>
+        <v>0.4442037643039056</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4037057995624393</v>
+        <v>0.4071221965961274</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4829529138227664</v>
+        <v>0.4841027318176474</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>477</v>
@@ -1213,19 +1213,19 @@
         <v>468760</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>428038</v>
+        <v>432297</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>501499</v>
+        <v>502172</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4355620363732856</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3977240297669131</v>
+        <v>0.4016811876401675</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.46598194825725</v>
+        <v>0.4666077350065514</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>11115</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6380</v>
+        <v>5611</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18231</v>
+        <v>18819</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03578322258140583</v>
+        <v>0.03578322258140582</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02053936216480005</v>
+        <v>0.01806498054160118</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05869504944924452</v>
+        <v>0.06058596805620848</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -1338,19 +1338,19 @@
         <v>15017</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9616</v>
+        <v>9573</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22976</v>
+        <v>22705</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04260782963967084</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02728482789784852</v>
+        <v>0.02716342567166793</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06519232506742303</v>
+        <v>0.06442177371088885</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>35</v>
@@ -1359,19 +1359,19 @@
         <v>26131</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18264</v>
+        <v>18503</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>37121</v>
+        <v>35371</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03941076576746106</v>
+        <v>0.03941076576746107</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02754481560038594</v>
+        <v>0.02790639178986933</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05598557464894986</v>
+        <v>0.05334532485057505</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>113593</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97750</v>
+        <v>97099</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129682</v>
+        <v>130802</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3657077366024185</v>
+        <v>0.3657077366024184</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3147028414847132</v>
+        <v>0.31260603052345</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4175034068213126</v>
+        <v>0.4211115962816019</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>154</v>
@@ -1409,19 +1409,19 @@
         <v>102508</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88693</v>
+        <v>88890</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117373</v>
+        <v>117734</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2908566676956313</v>
+        <v>0.2908566676956314</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.251656367227178</v>
+        <v>0.2522147710359848</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3330336346081424</v>
+        <v>0.3340564881640991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>279</v>
@@ -1430,19 +1430,19 @@
         <v>216102</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>194282</v>
+        <v>194747</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>239198</v>
+        <v>238687</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.325921492110447</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2930130950266767</v>
+        <v>0.2937140521925992</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3607553064954119</v>
+        <v>0.3599843327191497</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>185904</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>168999</v>
+        <v>168955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>201266</v>
+        <v>202971</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5985090408161757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5440847726852585</v>
+        <v>0.5439415222898346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6479656415834762</v>
+        <v>0.6534566225907736</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>354</v>
@@ -1480,19 +1480,19 @@
         <v>234911</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>219145</v>
+        <v>218842</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>248863</v>
+        <v>249796</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6665355026646977</v>
+        <v>0.6665355026646979</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6218014498815461</v>
+        <v>0.6209418045069245</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7061225359115152</v>
+        <v>0.7087688777465634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>568</v>
@@ -1501,19 +1501,19 @@
         <v>420815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>397555</v>
+        <v>399347</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>442515</v>
+        <v>442242</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.634667742122092</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5995876407725814</v>
+        <v>0.6022902665463202</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6673947709678307</v>
+        <v>0.6669832088431498</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>92466</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72115</v>
+        <v>71229</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117246</v>
+        <v>116690</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2524224227469153</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1968684793803611</v>
+        <v>0.1944493337578239</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3200706993256276</v>
+        <v>0.3185520091785153</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -1626,19 +1626,19 @@
         <v>99235</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83914</v>
+        <v>83640</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>115394</v>
+        <v>116451</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2411414070520458</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2039121660436091</v>
+        <v>0.2032460575264021</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2804084742275286</v>
+        <v>0.2829770455529977</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>214</v>
@@ -1647,19 +1647,19 @@
         <v>191700</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164842</v>
+        <v>166026</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>222091</v>
+        <v>221438</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2464540875075298</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2119249489718395</v>
+        <v>0.2134468527572008</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2855245834254901</v>
+        <v>0.2846855546915639</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>148989</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122275</v>
+        <v>124051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>174085</v>
+        <v>174192</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4067270639652929</v>
+        <v>0.4067270639652928</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3337988157062384</v>
+        <v>0.3386489052997565</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4752355376207239</v>
+        <v>0.475528198793772</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>279</v>
@@ -1697,19 +1697,19 @@
         <v>186284</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166278</v>
+        <v>168010</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>204197</v>
+        <v>203763</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4526725230446672</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4040571389081273</v>
+        <v>0.4082665409663926</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4962003993358598</v>
+        <v>0.4951451352036492</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>402</v>
@@ -1718,19 +1718,19 @@
         <v>335274</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>304582</v>
+        <v>304213</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>370179</v>
+        <v>366503</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4310349729275941</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.391577181166151</v>
+        <v>0.3911021395396826</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4759104808899408</v>
+        <v>0.4711837663681235</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>124858</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>103182</v>
+        <v>101786</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>152922</v>
+        <v>147336</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3408505132877916</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2816764632663646</v>
+        <v>0.2778667546566284</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4174633739833725</v>
+        <v>0.402214019636208</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>165</v>
@@ -1768,19 +1768,19 @@
         <v>126002</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>109490</v>
+        <v>108630</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>144666</v>
+        <v>144690</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3061860699032869</v>
+        <v>0.306186069903287</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2660610502739592</v>
+        <v>0.263970786508217</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3515393784816665</v>
+        <v>0.351598279819726</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>262</v>
@@ -1789,19 +1789,19 @@
         <v>250860</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>223549</v>
+        <v>221873</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>282056</v>
+        <v>280454</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3225109395648763</v>
+        <v>0.3225109395648762</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2873992613785079</v>
+        <v>0.285245002617831</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3626176431951409</v>
+        <v>0.3605570431279423</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>1894</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5160</v>
+        <v>5537</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.009207996463164024</v>
+        <v>0.009207996463164026</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002407342527359959</v>
+        <v>0.002421072898100184</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02508876643757005</v>
+        <v>0.02692366946226686</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1914,19 +1914,19 @@
         <v>2836</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5579</v>
+        <v>5318</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01250436827599258</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005064929238433992</v>
+        <v>0.005054580326093908</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0245973626861806</v>
+        <v>0.02344648074124813</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1935,19 +1935,19 @@
         <v>4730</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2447</v>
+        <v>2183</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8971</v>
+        <v>8371</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01093681653370021</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005658210319665546</v>
+        <v>0.00504708134921506</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02074287106140548</v>
+        <v>0.01935576129172083</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>58194</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>47256</v>
+        <v>47506</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71577</v>
+        <v>70952</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2829547272074622</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2297740330874797</v>
+        <v>0.2309873238274668</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3480273984763866</v>
+        <v>0.3449868604595911</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>95</v>
@@ -1985,19 +1985,19 @@
         <v>45461</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36842</v>
+        <v>37653</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>55007</v>
+        <v>55403</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2004233847178171</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1624273928582079</v>
+        <v>0.166001457496552</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2425117527861002</v>
+        <v>0.244255094796603</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>169</v>
@@ -2006,19 +2006,19 @@
         <v>103654</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>89337</v>
+        <v>88730</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>118665</v>
+        <v>120035</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2396702164040642</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2065646057573426</v>
+        <v>0.2051614183449578</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2743781199596051</v>
+        <v>0.277545529737097</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>145577</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>133039</v>
+        <v>132512</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>156364</v>
+        <v>156377</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7078372763293737</v>
+        <v>0.7078372763293739</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6468742253928601</v>
+        <v>0.6443096575052455</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7602848810698979</v>
+        <v>0.7603497788160402</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>389</v>
@@ -2056,19 +2056,19 @@
         <v>178526</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>169275</v>
+        <v>168532</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>187988</v>
+        <v>186224</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7870722470061905</v>
+        <v>0.7870722470061904</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7462881248801854</v>
+        <v>0.7430094197625696</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8287861351897846</v>
+        <v>0.8210124156360173</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>591</v>
@@ -2077,19 +2077,19 @@
         <v>324103</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>309405</v>
+        <v>306591</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>339135</v>
+        <v>338541</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7493929670622355</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7154062466233526</v>
+        <v>0.7089009157038012</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7841483469056869</v>
+        <v>0.782775698215773</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>14971</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9575</v>
+        <v>9246</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22602</v>
+        <v>23262</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05530151824694909</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0353694544151411</v>
+        <v>0.03415515618116316</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08349252821215208</v>
+        <v>0.08593025087602273</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -2202,19 +2202,19 @@
         <v>8611</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5337</v>
+        <v>4872</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14818</v>
+        <v>14011</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.03264869662659942</v>
+        <v>0.0326486966265994</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02023337147176348</v>
+        <v>0.01847385136954682</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05618254782494578</v>
+        <v>0.05312231556988934</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -2223,19 +2223,19 @@
         <v>23582</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>16918</v>
+        <v>16530</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>33203</v>
+        <v>32473</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04412253605853014</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03165386872954665</v>
+        <v>0.03092903680334312</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06212561466250917</v>
+        <v>0.06075866596075758</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>162124</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>146979</v>
+        <v>147181</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>176740</v>
+        <v>176786</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5988898657710719</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.542945591895964</v>
+        <v>0.5436925486370159</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6528817041793786</v>
+        <v>0.653053664769939</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>283</v>
@@ -2273,19 +2273,19 @@
         <v>165107</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>152902</v>
+        <v>152839</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>176144</v>
+        <v>178069</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6259991756627099</v>
+        <v>0.6259991756627096</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.579721820453827</v>
+        <v>0.5794858228980764</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6678452557219143</v>
+        <v>0.6751431161326934</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>507</v>
@@ -2294,19 +2294,19 @@
         <v>327231</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>309346</v>
+        <v>310005</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>346723</v>
+        <v>347222</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6122680884710073</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5788033473458868</v>
+        <v>0.5800378978105558</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6487383479016899</v>
+        <v>0.6496717826870804</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>93613</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>79971</v>
+        <v>79521</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>107903</v>
+        <v>109266</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3458086159819789</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2954154008395823</v>
+        <v>0.2937528828380437</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3985977503046357</v>
+        <v>0.4036315532309103</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>160</v>
@@ -2344,19 +2344,19 @@
         <v>90032</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78954</v>
+        <v>78405</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>102256</v>
+        <v>102761</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3413521277106908</v>
+        <v>0.3413521277106907</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2993528683057156</v>
+        <v>0.2972694613974508</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3877017154338439</v>
+        <v>0.3896163533599216</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>285</v>
@@ -2365,19 +2365,19 @@
         <v>183644</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>164429</v>
+        <v>164216</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>201552</v>
+        <v>200490</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3436093754704625</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3076569262362034</v>
+        <v>0.3072567607984477</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3771156290354355</v>
+        <v>0.3751292031424707</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>122776</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>101476</v>
+        <v>101975</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>146466</v>
+        <v>147675</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1708527415629048</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1412122629611207</v>
+        <v>0.1419063879851473</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2038192745233053</v>
+        <v>0.2055029278475294</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>186</v>
@@ -2490,19 +2490,19 @@
         <v>146377</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>127755</v>
+        <v>125829</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>167849</v>
+        <v>168331</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.18959373251576</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1654741538961643</v>
+        <v>0.1629794734137918</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2174048439102538</v>
+        <v>0.218028662736158</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>290</v>
@@ -2511,19 +2511,19 @@
         <v>269153</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>239603</v>
+        <v>237785</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>304215</v>
+        <v>302103</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.180559240361712</v>
+        <v>0.1805592403617121</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1607357416869082</v>
+        <v>0.1595163320948608</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2040805053557032</v>
+        <v>0.2026639471180487</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>162173</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>137352</v>
+        <v>138116</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>190020</v>
+        <v>188713</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2256773799039294</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1911375667264611</v>
+        <v>0.1922006808593703</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2644293145389545</v>
+        <v>0.2626097801537901</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>278</v>
@@ -2561,19 +2561,19 @@
         <v>217770</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>194490</v>
+        <v>195190</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>241489</v>
+        <v>242641</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2820652012654596</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2519116564517498</v>
+        <v>0.2528184159055321</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3127869563378199</v>
+        <v>0.3142783852752996</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>418</v>
@@ -2582,19 +2582,19 @@
         <v>379943</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>347032</v>
+        <v>345316</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>415815</v>
+        <v>415089</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2548822560862993</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.232803785962594</v>
+        <v>0.2316529644367324</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2789467989857629</v>
+        <v>0.2784596596164173</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>433656</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>402775</v>
+        <v>402626</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>461101</v>
+        <v>466883</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6034698785331658</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5604954773193201</v>
+        <v>0.5602887015390685</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6416611451365234</v>
+        <v>0.6497077122734048</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>496</v>
@@ -2632,19 +2632,19 @@
         <v>407909</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>382960</v>
+        <v>381481</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>435074</v>
+        <v>433699</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5283410662187803</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4960252558251823</v>
+        <v>0.4941103215431119</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5635256499006973</v>
+        <v>0.5617442229847885</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>850</v>
@@ -2653,19 +2653,19 @@
         <v>841566</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>802160</v>
+        <v>801059</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>879389</v>
+        <v>882753</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5645585035519888</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5381230921349806</v>
+        <v>0.537384859180439</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.589932044181072</v>
+        <v>0.5921888389086806</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>17108</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10467</v>
+        <v>10343</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27403</v>
+        <v>27929</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02143658217360556</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01311487665210146</v>
+        <v>0.01296028711059558</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03433675781771844</v>
+        <v>0.03499609561321367</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -2778,19 +2778,19 @@
         <v>18657</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11816</v>
+        <v>11751</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27729</v>
+        <v>27736</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.02244208294194312</v>
+        <v>0.02244208294194313</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01421299109845435</v>
+        <v>0.01413495934603314</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03335520562365341</v>
+        <v>0.03336366754642067</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>40</v>
@@ -2799,19 +2799,19 @@
         <v>35765</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25184</v>
+        <v>25853</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>48183</v>
+        <v>47415</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0219495947518298</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01545595268258348</v>
+        <v>0.01586683012764244</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0295708452898424</v>
+        <v>0.02909968538885336</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>596521</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>569722</v>
+        <v>568882</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>621333</v>
+        <v>621996</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.7474519905551114</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7138734742868702</v>
+        <v>0.712820864310896</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7785429448828373</v>
+        <v>0.7793736409006857</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>787</v>
@@ -2849,19 +2849,19 @@
         <v>612259</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>588566</v>
+        <v>588364</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>634098</v>
+        <v>633821</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.7364798622096507</v>
+        <v>0.7364798622096508</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.7079807037768124</v>
+        <v>0.7077374227249347</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7627506363360723</v>
+        <v>0.7624170485722478</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1360</v>
@@ -2870,19 +2870,19 @@
         <v>1208779</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1171578</v>
+        <v>1174567</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1245281</v>
+        <v>1241089</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.7418539442598129</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.7190230670097896</v>
+        <v>0.7208569951735452</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7642562699974107</v>
+        <v>0.7616829949799186</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>184444</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>160574</v>
+        <v>160015</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>210068</v>
+        <v>211365</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.231111427271283</v>
+        <v>0.2311114272712829</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2012021709152448</v>
+        <v>0.2005013686294893</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2632193465624865</v>
+        <v>0.2648444729156285</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>252</v>
@@ -2920,19 +2920,19 @@
         <v>200416</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>179268</v>
+        <v>177062</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>224323</v>
+        <v>222002</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2410780548484062</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2156393049679863</v>
+        <v>0.212986060741516</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2698363454260118</v>
+        <v>0.2670439684970586</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>424</v>
@@ -2941,19 +2941,19 @@
         <v>384859</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>350929</v>
+        <v>352374</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>420073</v>
+        <v>418497</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2361964609883574</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2153725353095357</v>
+        <v>0.2162597478623036</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2578080883005209</v>
+        <v>0.2568408287998065</v>
       </c>
     </row>
     <row r="35">
@@ -3045,19 +3045,19 @@
         <v>331214</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>293821</v>
+        <v>292941</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>378715</v>
+        <v>376361</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.09413388479975729</v>
+        <v>0.09413388479975732</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08350625227415669</v>
+        <v>0.08325634396294566</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1076339961652968</v>
+        <v>0.1069649074203645</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>530</v>
@@ -3066,19 +3066,19 @@
         <v>380343</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>344763</v>
+        <v>344913</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>414305</v>
+        <v>415615</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1022297293775189</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09266640264143954</v>
+        <v>0.09270682959755464</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1113581821858809</v>
+        <v>0.1117102326035946</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>809</v>
@@ -3087,19 +3087,19 @@
         <v>711557</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>661126</v>
+        <v>660361</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>762719</v>
+        <v>765318</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09829472200968513</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09132815039116197</v>
+        <v>0.09122242533462577</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.105362178432318</v>
+        <v>0.1057212634777853</v>
       </c>
     </row>
     <row r="37">
@@ -3116,19 +3116,19 @@
         <v>1518003</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1451102</v>
+        <v>1453826</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1581249</v>
+        <v>1590321</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4314290964053814</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.412415433586277</v>
+        <v>0.4131896049288997</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4494043103611435</v>
+        <v>0.4519826282966538</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2227</v>
@@ -3137,19 +3137,19 @@
         <v>1588242</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1532148</v>
+        <v>1531076</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1639078</v>
+        <v>1645769</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.4268923097354552</v>
+        <v>0.4268923097354551</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4118151927877878</v>
+        <v>0.4115271633610562</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.440556239323771</v>
+        <v>0.442354626296504</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3698</v>
@@ -3158,19 +3158,19 @@
         <v>3106244</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3018505</v>
+        <v>3018259</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3187265</v>
+        <v>3183025</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4290974272869318</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4169770375173676</v>
+        <v>0.4169431461869089</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.440289568367107</v>
+        <v>0.4397039277359153</v>
       </c>
     </row>
     <row r="38">
@@ -3187,19 +3187,19 @@
         <v>1669328</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1604345</v>
+        <v>1602018</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1739394</v>
+        <v>1733612</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4744370187948614</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4559683110150393</v>
+        <v>0.4553070115250095</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4943504856471552</v>
+        <v>0.4927071663419182</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2593</v>
@@ -3208,19 +3208,19 @@
         <v>1751889</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1701218</v>
+        <v>1697051</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1808790</v>
+        <v>1809202</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4708779608870259</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4572584809128698</v>
+        <v>0.4561382990204263</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4861719065000761</v>
+        <v>0.4862827644631733</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>4203</v>
@@ -3229,19 +3229,19 @@
         <v>3421217</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3338378</v>
+        <v>3336822</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3506162</v>
+        <v>3505390</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.472607850703383</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4611644218041301</v>
+        <v>0.4609495030731572</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4843421699725988</v>
+        <v>0.484235560289498</v>
       </c>
     </row>
     <row r="39">
